--- a/AutoTestNg/src/main/java/AutoTest/flow/form_al.xlsx
+++ b/AutoTestNg/src/main/java/AutoTest/flow/form_al.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>param1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +240,10 @@
   </si>
   <si>
     <t>111222333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{from Java(name=com.xxx.yyy(from Sheet(name="案例数据",value="E,2")},"123",123))}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -809,17 +813,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="62.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="39.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="41.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="2"/>
@@ -868,6 +872,11 @@
         <v>53</v>
       </c>
     </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -880,7 +889,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/AutoTestNg/src/main/java/AutoTest/flow/form_al.xlsx
+++ b/AutoTestNg/src/main/java/AutoTest/flow/form_al.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="案例信息" sheetId="6" r:id="rId1"/>
@@ -134,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>321</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>after</t>
   </si>
   <si>
@@ -231,7 +223,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{from Sheet(name="form",value="A,2")}</t>
+    <t>111222333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4455</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -239,11 +235,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>111222333</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{from Java(name=com.xxx.yyy(from Sheet(name="案例数据",value="E,2")},"123",123))}</t>
+    <t>{from Java(name=AutoTest.Base.TestMethod.TestMethod.test({from Sheet(name="案例数据",value="D,2")},"123",123,12.22))}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{from Java(name=AutoTest.Base.TestMethod.TestMethod.cookie("123"))}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{from Java(name=AutoTest.Base.TestMethod.TestMethod.head("123"))}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -655,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +670,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -689,10 +689,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -716,13 +716,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -730,66 +730,66 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -813,17 +813,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
-    <col min="3" max="3" width="62.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="73" style="2" customWidth="1"/>
     <col min="4" max="4" width="39.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="41.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="2"/>
@@ -831,10 +831,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>19</v>
@@ -857,10 +857,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>52</v>
@@ -869,12 +869,10 @@
         <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/AutoTestNg/src/main/java/AutoTest/flow/form_al.xlsx
+++ b/AutoTestNg/src/main/java/AutoTest/flow/form_al.xlsx
@@ -12,7 +12,7 @@
     <sheet name="cookie" sheetId="8" r:id="rId3"/>
     <sheet name="数据准备" sheetId="5" r:id="rId4"/>
     <sheet name="案例数据" sheetId="1" r:id="rId5"/>
-    <sheet name="form" sheetId="2" r:id="rId6"/>
+    <sheet name="senddata" sheetId="2" r:id="rId6"/>
     <sheet name="字典项" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>param1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,120 +130,124 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>TestId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23423</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>23423</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23424</t>
+  </si>
+  <si>
+    <t>1a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DbInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>after</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111222333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4455</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{from Sheet(name="案例数据",value="E,2")}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{from Java(name=AutoTest.Base.TestMethod.TestMethod.test({from Sheet(name="案例数据",value="D,2")},"123",123,12.22))}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send-Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式样例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>hello</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hello</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>after</t>
-  </si>
-  <si>
-    <t>TestId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23423</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>before</t>
-  </si>
-  <si>
-    <t>23423</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23424</t>
-  </si>
-  <si>
-    <t>1a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DbInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>after</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1212</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111222333</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4455</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{from Sheet(name="案例数据",value="E,2")}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{from Java(name=AutoTest.Base.TestMethod.TestMethod.test({from Sheet(name="案例数据",value="D,2")},"123",123,12.22))}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{from Java(name=AutoTest.Base.TestMethod.TestMethod.cookie("123"))}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{from Java(name=AutoTest.Base.TestMethod.TestMethod.head("123"))}</t>
+    <t>{from java(name=AutoTest.Base.TestMethod.TestMethod.head("hello"))}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -608,6 +612,22 @@
       </c>
       <c r="B2" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -652,10 +672,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -667,10 +687,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -685,14 +705,6 @@
       </c>
       <c r="B1" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -716,13 +728,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -730,66 +742,66 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -815,7 +827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -831,10 +843,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>19</v>
@@ -857,22 +869,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -887,7 +899,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/AutoTestNg/src/main/java/AutoTest/flow/form_al.xlsx
+++ b/AutoTestNg/src/main/java/AutoTest/flow/form_al.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16470" windowHeight="4095" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="案例信息" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">案例数据!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:D12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="100">
   <si>
     <t>param1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,6 +250,144 @@
   <si>
     <t>{from java(name=AutoTest.Base.TestMethod.TestMethod.head("hello"))}</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>test8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>test9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>test10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>test11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>test12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>test13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>test14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>test15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>test16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>test17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>test18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>test19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>test20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>test21</t>
   </si>
 </sst>
 </file>
@@ -653,7 +792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -825,10 +964,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -885,6 +1024,406 @@
       </c>
       <c r="F2" s="2" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/AutoTestNg/src/main/java/AutoTest/flow/form_al.xlsx
+++ b/AutoTestNg/src/main/java/AutoTest/flow/form_al.xlsx
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">案例数据!#REF!</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:D12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -146,10 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TestId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,10 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,112 +273,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>test5</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
-    <t>test6</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
-    <t>test7</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
-    <t>test8</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
-    <t>test9</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>test10</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
-    <t>test11</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
-    <t>test12</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
-    <t>test13</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
-    <t>test14</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
-    <t>test15</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
-    <t>test16</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
-    <t>test17</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
-    <t>test18</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
-    <t>test19</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
-    <t>test20</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
-    <t>test21</t>
+    <t>测试方法1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试方法2</t>
+  </si>
+  <si>
+    <t>测试方法3</t>
+  </si>
+  <si>
+    <t>测试方法4</t>
+  </si>
+  <si>
+    <t>测试方法5</t>
+  </si>
+  <si>
+    <t>测试方法6</t>
+  </si>
+  <si>
+    <t>测试方法7</t>
+  </si>
+  <si>
+    <t>测试方法8</t>
+  </si>
+  <si>
+    <t>测试方法9</t>
+  </si>
+  <si>
+    <t>测试方法10</t>
+  </si>
+  <si>
+    <t>测试方法11</t>
+  </si>
+  <si>
+    <t>测试方法12</t>
+  </si>
+  <si>
+    <t>测试方法13</t>
+  </si>
+  <si>
+    <t>测试方法14</t>
+  </si>
+  <si>
+    <t>测试方法15</t>
+  </si>
+  <si>
+    <t>测试方法16</t>
+  </si>
+  <si>
+    <t>测试方法17</t>
+  </si>
+  <si>
+    <t>测试方法18</t>
+  </si>
+  <si>
+    <t>测试方法19</t>
+  </si>
+  <si>
+    <t>测试方法20</t>
+  </si>
+  <si>
+    <t>测试方法21</t>
   </si>
 </sst>
 </file>
@@ -755,18 +753,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
         <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -811,10 +809,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -867,13 +865,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -881,63 +879,63 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
@@ -966,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1011,419 +1009,419 @@
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
